--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -74,19 +89,37 @@
     <t>47.0250</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -113,7 +146,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:14 AM</t>
+    <t>Tuesday, 26 August, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -853,24 +886,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,66 +912,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>38</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>346.02499999999998</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>35</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>36</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>38</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>454.30500000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1104,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -146,7 +158,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:28 AM</t>
+    <t>Tuesday, 26 August, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -985,13 +997,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1002,7 +1014,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1018,13 +1030,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1039,38 +1051,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>454.30500000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>42</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>461.35500000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1164,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -158,7 +167,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:29 AM</t>
+    <t>Tuesday, 26 August, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -964,7 +973,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -974,14 +983,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,14 +999,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1007,14 +1016,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1023,31 +1032,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,66 +1065,99 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>461.35500000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>49</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>45</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>483.13499999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1211,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -167,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:32 AM</t>
+    <t>Tuesday, 26 August, 2025 10:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1006,13 +1015,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1023,7 +1032,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1032,14 +1041,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1049,14 +1058,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1072,13 +1081,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1089,7 +1098,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1105,59 +1114,92 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>483.13499999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>36</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>495.13499999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1258,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:53 AM</t>
+    <t>Tuesday, 26 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -155,13 +155,34 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -176,7 +197,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:57 AM</t>
+    <t>Tuesday, 26 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,13 +1135,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1131,7 +1152,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1147,7 +1168,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1157,49 +1178,115 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>54</v>
       </c>
-      <c t="s" r="Q17" s="12">
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>36</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>495.13499999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>55</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>56</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>57</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>36</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>541.96500000000003</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1350,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -128,12 +128,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -164,6 +173,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -197,7 +212,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:07 AM</t>
+    <t>Tuesday, 26 August, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1101,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1095,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1112,14 +1127,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1128,14 +1143,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1168,13 +1183,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1185,7 +1200,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1194,7 +1209,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1207,15 +1222,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1227,14 +1242,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1244,49 +1259,115 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>36</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>61</v>
       </c>
-      <c t="s" r="Q19" s="12">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>541.96500000000003</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>62</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>64</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>36</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>649.96500000000003</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1360,10 +1441,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:17 AM</t>
+    <t>Tuesday, 26 August, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -128,21 +128,12 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -212,7 +203,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:26 AM</t>
+    <t>Tuesday, 26 August, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1101,7 +1092,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,14 +1118,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1143,14 +1134,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1183,7 +1174,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1184,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,7 +1200,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1222,18 +1213,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,7 +1233,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1259,14 +1250,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1282,7 +1273,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1292,82 +1283,49 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c t="s" r="C21" s="8">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c t="s" r="H21" s="9">
+      <c r="P21" s="13">
+        <v>592.96500000000003</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
         <v>64</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c t="s" r="L21" s="10">
-        <v>36</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c t="s" r="N21" s="8">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
         <v>65</v>
       </c>
-      <c r="O21" s="8"/>
-      <c t="s" r="P21" s="11">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
         <v>66</v>
       </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>649.96500000000003</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>69</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1446,15 +1404,10 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:27 AM</t>
+    <t>Tuesday, 26 August, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:37 AM</t>
+    <t>Tuesday, 26 August, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>239.00</t>
   </si>
   <si>
@@ -65,16 +80,22 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
@@ -116,6 +137,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -128,6 +158,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -203,7 +245,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:45 AM</t>
+    <t>Tuesday, 26 August, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,7 +952,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -920,14 +962,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -936,14 +978,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -960,7 +1002,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -976,7 +1018,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -986,14 +1028,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,14 +1044,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,14 +1061,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1035,20 +1077,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1059,7 +1101,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1075,7 +1117,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,14 +1127,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,14 +1143,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,14 +1160,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,31 +1176,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1167,14 +1209,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,7 +1226,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1207,24 +1249,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,28 +1275,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1266,66 +1308,198 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>592.96500000000003</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>64</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>46</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>46</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>72</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>75</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>46</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>700.255</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>78</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>80</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1578,30 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>312.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -245,7 +254,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:57 AM</t>
+    <t>Tuesday, 26 August, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1060,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1068,7 +1077,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1084,7 +1093,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1117,7 +1126,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1150,7 +1159,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1183,21 +1192,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1209,28 +1218,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1242,14 +1251,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1259,14 +1268,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,14 +1284,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1292,14 +1301,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1308,14 +1317,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1348,7 +1357,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1358,14 +1367,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1374,7 +1383,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1387,18 +1396,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1407,7 +1416,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1420,18 +1429,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1447,59 +1456,92 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>700.255</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>78</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>49</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1012.255</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>83</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1598,10 +1640,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>312.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -254,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 11:58 AM</t>
+    <t>Tuesday, 26 August, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1093,7 +1099,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1110,7 +1116,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1126,7 +1132,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1159,7 +1165,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1192,7 +1198,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1225,21 +1231,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1251,28 +1257,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1284,14 +1290,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1301,14 +1307,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,14 +1323,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1334,14 +1340,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,14 +1356,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1367,11 +1373,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1383,14 +1389,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1400,14 +1406,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1429,18 +1435,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1449,7 +1455,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1462,18 +1468,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1482,66 +1488,99 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1012.255</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>80</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>52</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1060.2550000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>84</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>85</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1684,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -239,6 +239,33 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>ليفه</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -248,6 +275,9 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">مسواك اسنان </t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -260,7 +290,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 12:07 PM</t>
+    <t>Tuesday, 26 August, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1525,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,11 +1535,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1521,14 +1551,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1538,49 +1568,181 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1060.2550000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>77</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>52</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>84</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>52</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>86</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>26</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>52</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>82</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>90</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>52</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>91</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1160.2550000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>93</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>94</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>95</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1689,10 +1851,30 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -290,7 +299,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 12:09 PM</t>
+    <t>Tuesday, 26 August, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,18 +1309,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,24 +1329,24 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1370,14 +1379,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1386,14 +1395,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1412,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1428,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,7 +1494,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1498,18 +1507,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,31 +1527,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,28 +1560,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1584,28 +1593,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1617,28 +1626,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1657,21 +1666,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1683,66 +1692,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1160.2550000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>93</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>55</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>94</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1282.2550000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>97</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>98</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1871,10 +1913,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WE.GEL GEL 75 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -299,7 +308,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 12:29 PM</t>
+    <t>Tuesday, 26 August, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1511,11 +1520,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1527,7 +1536,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1540,18 +1549,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1560,14 +1569,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1577,14 +1586,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1593,14 +1602,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1610,11 +1619,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1626,14 +1635,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1643,11 +1652,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1659,14 +1668,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1676,11 +1685,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1699,7 +1708,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1709,11 +1718,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1742,49 +1751,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1282.2550000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>96</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>55</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>97</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1350.2550000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1918,10 +1960,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 12:39 PM</t>
+    <t>Tuesday, 26 August, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1510,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -260,9 +272,6 @@
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -308,7 +317,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 12:43 PM</t>
+    <t>Tuesday, 26 August, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1576,7 +1585,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1586,14 +1595,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1609,7 +1618,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1619,14 +1628,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1642,7 +1651,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1652,11 +1661,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1668,14 +1677,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1685,11 +1694,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1701,14 +1710,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1718,11 +1727,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1741,7 +1750,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1784,49 +1793,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1350.2550000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>99</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>55</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1375.2550000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2007,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -317,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 1:10 PM</t>
+    <t>Tuesday, 26 August, 2025 1:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,7 +1135,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1133,14 +1145,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1149,14 +1161,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1166,14 +1178,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1182,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1199,14 +1211,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1215,14 +1227,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1232,11 +1244,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1248,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1265,11 +1277,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1281,14 +1293,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1298,11 +1310,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1331,14 +1343,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1347,7 +1359,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1360,7 +1372,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1371,7 +1383,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1387,21 +1399,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1413,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,14 +1442,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1446,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1463,14 +1475,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1486,7 +1498,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1496,11 +1508,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1512,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1529,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1562,11 +1574,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1578,24 +1590,24 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1618,24 +1630,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1651,13 +1663,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1668,7 +1680,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1677,20 +1689,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1717,21 +1729,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1743,20 +1755,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1776,28 +1788,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1809,66 +1821,99 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1375.2550000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>102</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>103</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>59</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>104</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1404.2550000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>107</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>108</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2012,10 +2057,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 1:29 PM</t>
+    <t>Tuesday, 26 August, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -275,10 +275,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -329,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 3:03 PM</t>
+    <t>Tuesday, 26 August, 2025 3:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="P35" s="13">
-        <v>1404.2550000000001</v>
+        <v>1434.2550000000001</v>
       </c>
       <c r="Q35" s="13"/>
     </row>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>239.00</t>
   </si>
   <si>
@@ -149,6 +158,18 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -236,6 +257,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -281,6 +305,21 @@
     <t>19:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -308,9 +347,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -329,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 3:04 PM</t>
+    <t>Tuesday, 26 August, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1020,7 +1056,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1029,14 +1065,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1046,14 +1082,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1069,7 +1105,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1079,11 +1115,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1095,14 +1131,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,11 +1148,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1128,14 +1164,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,11 +1181,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1161,14 +1197,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1185,7 +1221,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1201,7 +1237,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1218,7 +1254,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1234,7 +1270,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1251,7 +1287,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1267,7 +1303,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1300,7 +1336,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,11 +1346,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1326,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1343,11 +1379,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1359,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,20 +1428,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1432,7 +1468,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1465,13 +1501,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1482,7 +1518,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,11 +1544,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1524,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1564,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,31 +1659,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,7 +1692,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1669,18 +1705,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,24 +1732,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,20 +1758,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1746,7 +1782,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,31 +1791,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,31 +1824,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1821,31 +1857,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1854,66 +1890,165 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1434.2550000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>106</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>107</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>66</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>51</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>29</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>66</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>108</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>115</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>66</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>116</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1497.675</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2062,10 +2197,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 4:52 PM</t>
+    <t>Tuesday, 26 August, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -311,9 +323,6 @@
     <t>11:2</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -332,9 +341,6 @@
     <t>فرش اسنان اورل فريش</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -365,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:10 PM</t>
+    <t>Tuesday, 26 August, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1771,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1781,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1798,7 +1804,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1864,7 +1870,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,11 +1880,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,11 +1913,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -1923,14 +1929,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,11 +1946,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -1963,7 +1969,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +1979,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,49 +2012,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1497.675</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>117</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>66</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>118</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1527.675</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>120</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>121</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>122</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2251,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:11 PM</t>
+    <t>Tuesday, 26 August, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -371,7 +380,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:26 PM</t>
+    <t>Tuesday, 26 August, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1582,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1689,7 +1698,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1731,28 +1740,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,11 +1790,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1821,7 +1830,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1903,7 +1912,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1936,7 +1945,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,7 +1988,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,11 +2021,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,49 +2054,82 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1527.675</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>120</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>66</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>121</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1572.675</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>123</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>125</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2256,10 +2298,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALLEAR 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>APEXIDONE 3MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -83,9 +95,6 @@
     <t>239.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -158,6 +167,18 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -209,9 +230,6 @@
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -236,6 +254,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -245,12 +272,18 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -263,6 +296,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -380,7 +419,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:33 PM</t>
+    <t>Tuesday, 26 August, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1071,7 +1110,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1080,14 +1119,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1097,14 +1136,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1153,7 +1192,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1163,14 +1202,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,14 +1218,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,14 +1235,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1212,14 +1251,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,14 +1268,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1245,14 +1284,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1269,7 +1308,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1285,7 +1324,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1302,7 +1341,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1318,7 +1357,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1351,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1361,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,20 +1416,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1417,7 +1456,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,14 +1466,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1443,7 +1482,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1460,14 +1499,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1476,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,14 +1532,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,20 +1548,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1533,7 +1572,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1549,7 +1588,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,7 +1598,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1582,13 +1621,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1599,7 +1638,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1625,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1680,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,11 +1697,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1674,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,14 +1746,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,14 +1763,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1779,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1796,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,31 +1812,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,31 +1845,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,31 +1878,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,31 +1911,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,31 +1944,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,31 +1977,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,31 +2010,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,31 +2043,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2044,24 +2083,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,66 +2109,231 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1572.675</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>123</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>124</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>125</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>111</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>53</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>128</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>107</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>53</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>126</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>53</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>58</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>32</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>53</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>126</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>133</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>53</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>134</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1993.675</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>136</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>137</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>138</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2303,10 +2507,35 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -419,7 +428,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:34 PM</t>
+    <t>Tuesday, 26 August, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1786,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1819,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1935,7 +1944,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1951,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,11 +1970,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1977,28 +1986,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2067,7 +2076,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2149,7 +2158,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2182,7 +2191,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,11 +2201,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,7 +2234,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2258,11 +2267,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2291,49 +2300,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1993.675</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>136</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>53</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>137</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2223.6750000000002</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2532,10 +2574,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -62,6 +62,30 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHAVIM 300 - 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -74,9 +98,6 @@
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>APEXIDONE 3MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -272,9 +293,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -428,7 +446,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:47 PM</t>
+    <t>Tuesday, 26 August, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1119,7 +1137,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1128,14 +1146,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1152,7 +1170,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1168,7 +1186,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1178,14 +1196,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1194,14 +1212,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,14 +1229,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1227,14 +1245,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1251,7 +1269,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1267,7 +1285,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1277,14 +1295,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1293,14 +1311,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1328,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1344,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1350,7 +1368,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1366,7 +1384,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1394,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1410,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1427,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,20 +1443,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1465,7 +1483,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,14 +1493,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,20 +1509,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1515,7 +1533,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1531,7 +1549,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1559,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1575,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,31 +1641,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,31 +1707,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1776,10 +1794,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1795,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,7 +1830,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1889,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,7 +1922,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1944,7 +1962,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1960,7 +1978,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,11 +1988,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,20 +2037,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2059,21 +2077,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2085,31 +2103,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2136,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2202,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2224,21 +2242,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2250,28 +2268,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2283,28 +2301,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2316,66 +2334,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2223.6750000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>139</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>140</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>39</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>60</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>135</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>141</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>142</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>60</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2411.6750000000002</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>145</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>146</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>147</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2579,10 +2663,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -248,21 +248,24 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
     <t>300.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -386,10 +389,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -422,6 +425,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>ليفه</t>
   </si>
   <si>
@@ -446,7 +452,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 5:53 PM</t>
+    <t>Tuesday, 26 August, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,17 +1720,17 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1747,21 +1753,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1773,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1790,14 +1796,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1806,7 +1812,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1823,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1839,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,14 +1862,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1872,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1905,14 +1911,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,11 +1928,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1938,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1955,14 +1961,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1971,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2037,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,14 +2060,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2070,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,11 +2093,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2103,28 +2109,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2136,14 +2142,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2153,11 +2159,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2169,14 +2175,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2186,14 +2192,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,14 +2208,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,14 +2225,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,14 +2241,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,14 +2258,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,14 +2274,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,11 +2291,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2301,14 +2307,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,11 +2324,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2351,11 +2357,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2367,14 +2373,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2384,11 +2390,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2400,14 +2406,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,49 +2423,115 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2411.6750000000002</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>142</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>39</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>60</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>136</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>144</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>60</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>145</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2440.6750000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>147</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>148</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>149</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2673,10 +2745,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
   </si>
   <si>
@@ -269,6 +278,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>LOPRECOUGH SYRUP 100 ML</t>
   </si>
   <si>
@@ -332,6 +353,27 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -362,9 +404,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -389,10 +428,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -404,9 +440,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -452,7 +485,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:12 PM</t>
+    <t>Tuesday, 26 August, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1258,7 +1291,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1275,7 +1308,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1291,7 +1324,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1308,7 +1341,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1324,7 +1357,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1334,11 +1367,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1350,14 +1383,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,11 +1400,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1383,14 +1416,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1400,11 +1433,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1416,14 +1449,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1440,7 +1473,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1456,7 +1489,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1473,7 +1506,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1489,7 +1522,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1506,7 +1539,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1528,18 +1561,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1548,31 +1581,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1581,14 +1614,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1621,7 +1654,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1654,7 +1687,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1687,7 +1720,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1704,7 +1737,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1720,7 +1753,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1753,21 +1786,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1779,28 +1812,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1812,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,14 +1862,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1852,7 +1885,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1862,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1878,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1899,10 +1932,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,14 +1994,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1977,14 +2010,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2001,7 +2034,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2017,7 +2050,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,11 +2060,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2043,14 +2076,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2060,11 +2093,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,7 +2126,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2116,7 +2149,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,28 +2175,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2175,31 +2208,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,31 +2241,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2248,24 +2281,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2274,28 +2307,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2307,28 +2340,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2340,7 +2373,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2353,18 +2386,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,31 +2406,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,28 +2439,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2439,28 +2472,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2472,66 +2505,198 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2440.6750000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>118</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>63</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>147</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>149</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>151</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>63</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>68</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>153</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>42</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>63</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>147</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>155</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>63</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>156</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2598.415</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>158</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>159</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>160</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2755,10 +2920,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:13 PM</t>
+    <t>Tuesday, 26 August, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:29 PM</t>
+    <t>Tuesday, 26 August, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1333,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1341,7 +1350,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1357,7 +1366,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1374,7 +1383,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1390,7 +1399,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1400,11 +1409,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1416,14 +1425,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,11 +1442,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,11 +1475,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1482,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1506,7 +1515,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1522,7 +1531,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1539,7 +1548,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1555,7 +1564,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1572,7 +1581,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1594,18 +1603,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1614,31 +1623,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1687,7 +1696,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1720,7 +1729,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1753,7 +1762,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1770,7 +1779,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1786,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1819,21 +1828,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1845,28 +1854,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1932,10 +1941,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,7 +1977,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1984,7 +1993,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2017,7 +2026,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2050,7 +2059,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2083,7 +2092,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2265,7 +2274,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2281,7 +2290,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2307,24 +2316,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2347,21 +2356,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2373,20 +2382,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2394,10 +2403,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2413,24 +2422,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>92</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2446,24 +2455,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2479,13 +2488,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2512,21 +2521,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2538,28 +2547,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2571,28 +2580,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2604,28 +2613,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2637,66 +2646,99 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2598.415</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>157</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>158</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>66</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>159</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2659.7950000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>161</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>162</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>163</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2940,10 +2982,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -437,7 +446,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -494,7 +503,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:34 PM</t>
+    <t>Tuesday, 26 August, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,7 +1474,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1475,11 +1484,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1491,14 +1500,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,11 +1517,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1524,14 +1533,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1548,7 +1557,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1581,7 +1590,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1597,7 +1606,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1636,18 +1645,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,31 +1665,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1729,7 +1738,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1762,7 +1771,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1795,7 +1804,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1861,21 +1870,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1887,28 +1896,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1974,10 +1983,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,7 +2019,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2092,7 +2101,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2125,7 +2134,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2307,7 +2316,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2323,7 +2332,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2349,24 +2358,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2389,21 +2398,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2415,20 +2424,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2436,10 +2445,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2455,24 +2464,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>95</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2488,24 +2497,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2521,13 +2530,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2554,21 +2563,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2580,28 +2589,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2613,28 +2622,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2646,28 +2655,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2679,66 +2688,99 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2659.7950000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>161</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>69</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>162</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2689.02</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>164</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>165</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>166</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2987,10 +3029,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -239,6 +248,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -344,6 +365,15 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -383,9 +413,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -404,6 +431,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8364:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>WE.GEL GEL 75 GM</t>
   </si>
   <si>
@@ -443,12 +482,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>24:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -488,6 +533,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
@@ -503,7 +557,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:41 PM</t>
+    <t>Tuesday, 26 August, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1396,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1359,7 +1413,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1375,7 +1429,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1392,7 +1446,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1408,7 +1462,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1425,7 +1479,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1441,7 +1495,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1451,11 +1505,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1467,14 +1521,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1507,7 +1561,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1517,11 +1571,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1533,14 +1587,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,11 +1604,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1566,14 +1620,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1590,7 +1644,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1606,7 +1660,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1623,7 +1677,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1639,7 +1693,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1656,7 +1710,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1678,18 +1732,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,31 +1752,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1785,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1771,7 +1825,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,14 +1835,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1797,14 +1851,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,11 +1868,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1830,14 +1884,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,14 +1901,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,14 +1917,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,11 +1934,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1896,7 +1950,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1909,18 +1963,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,14 +1983,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,11 +2000,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1962,31 +2016,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2049,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2066,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2035,7 +2089,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,14 +2099,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2115,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2082,10 +2136,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2148,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2165,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2127,14 +2181,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2144,14 +2198,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2160,14 +2214,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2184,7 +2238,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2210,11 +2264,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2226,14 +2280,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2297,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,14 +2313,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,14 +2330,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2292,14 +2346,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,14 +2363,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,14 +2379,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2342,14 +2396,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,14 +2412,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2375,7 +2429,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2398,24 +2452,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,28 +2478,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2457,31 +2511,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,31 +2544,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2530,13 +2584,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2563,21 +2617,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2589,7 +2643,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2602,18 +2656,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2622,31 +2676,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2655,31 +2709,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2688,28 +2742,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2721,66 +2775,264 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2689.02</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>164</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>165</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>166</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>72</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>168</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>80</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>72</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>168</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>72</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>77</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>153</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>72</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>175</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>48</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>72</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>168</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>179</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>72</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2882.02</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>182</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>183</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>184</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3034,10 +3286,40 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -143,6 +143,21 @@
     <t>239.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -155,9 +170,6 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -299,21 +311,30 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -326,9 +347,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>LOPRECOUGH SYRUP 100 ML</t>
   </si>
   <si>
@@ -482,7 +500,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -491,7 +512,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -518,9 +542,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -557,7 +578,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:46 PM</t>
+    <t>Tuesday, 26 August, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1516,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1505,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1521,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1538,11 +1559,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1554,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1571,11 +1592,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1587,14 +1608,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1660,7 +1681,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1686,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1719,14 +1740,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1736,14 +1757,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1752,7 +1773,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1765,7 +1786,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1776,7 +1797,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1792,13 +1813,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1809,7 +1830,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,7 +1863,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1858,7 +1879,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1922,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1934,11 +1955,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +1988,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,31 +2037,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2049,28 +2070,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2148,7 +2169,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,11 +2285,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2313,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2346,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2462,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2495,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,11 +2549,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,11 +2582,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2577,28 +2598,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2610,28 +2631,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2643,31 +2664,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2676,7 +2697,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2689,18 +2710,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2709,31 +2730,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,31 +2763,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2775,28 +2796,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2808,28 +2829,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2841,28 +2862,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2874,28 +2895,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2907,28 +2928,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2940,28 +2961,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2973,66 +2994,99 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2882.02</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>182</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>183</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>184</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>185</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>186</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>76</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>187</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3007.02</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>189</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>190</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>191</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3316,10 +3370,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -365,6 +374,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -500,10 +515,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -518,6 +533,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>54:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -578,7 +602,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 6:50 PM</t>
+    <t>Tuesday, 26 August, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2044,7 +2068,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,31 +2094,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,17 +2134,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2176,7 +2200,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,14 +2210,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2226,7 +2250,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2242,7 +2266,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2275,7 +2299,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2289,7 +2313,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2322,10 +2346,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,11 +2375,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,7 +2474,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2473,7 +2497,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,11 +2507,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,11 +2573,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,14 +2606,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,7 +2639,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2638,13 +2662,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2671,21 +2695,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2804,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2869,7 +2893,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,7 +2919,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2912,11 +2936,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2928,14 +2952,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2969,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,11 +3002,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,11 +3035,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3027,14 +3051,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,7 +3068,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3055,38 +3079,137 @@
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3007.02</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>189</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>164</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>76</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>190</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>48</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>76</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>184</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>194</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>76</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>195</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3106.02</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>197</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>198</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>199</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3375,10 +3498,25 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -602,7 +611,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 7:15 PM</t>
+    <t>Tuesday, 26 August, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2101,7 +2110,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2127,31 +2136,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2167,17 +2176,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,7 +2292,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2313,10 +2322,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2346,10 +2355,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2431,7 +2440,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2464,7 +2473,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2695,7 +2704,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2721,24 +2730,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2761,7 +2770,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>173</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2973,7 +2982,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,11 +3044,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,11 +3077,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,7 +3110,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3124,7 +3133,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,49 +3176,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>196</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3106.02</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>197</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>76</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>198</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3230.02</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>200</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>201</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>202</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3513,10 +3555,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>COBALAMOUN 1000MCG30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -236,12 +248,12 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -383,6 +395,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>NASOFLUTIN NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -521,6 +542,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -575,6 +605,24 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -611,7 +659,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 7:31 PM</t>
+    <t>Tuesday, 26 August, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1615,24 +1663,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1641,14 +1689,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1658,11 +1706,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1674,14 +1722,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1747,7 +1795,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1773,14 +1821,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1790,14 +1838,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1806,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1823,14 +1871,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1839,7 +1887,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1852,7 +1900,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1863,7 +1911,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1879,7 +1927,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1889,14 +1937,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1905,28 +1953,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1938,14 +1986,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1955,11 +2003,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1971,14 +2019,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1988,14 +2036,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2004,14 +2052,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2021,11 +2069,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2037,14 +2085,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2054,14 +2102,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2070,14 +2118,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2135,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,7 +2151,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2120,11 +2168,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2136,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2153,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2169,7 +2217,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2182,18 +2230,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2202,14 +2250,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,14 +2267,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2235,31 +2283,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2268,14 +2316,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,14 +2333,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2301,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,14 +2366,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2334,14 +2382,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2351,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2367,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2400,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,11 +2465,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2433,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2450,11 +2498,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2466,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,14 +2531,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2499,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,14 +2564,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,7 +2580,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2549,11 +2597,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2565,14 +2613,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2630,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,14 +2663,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2631,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2696,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2697,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,11 +2762,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2730,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,28 +2811,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2796,28 +2844,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2829,7 +2877,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2842,18 +2890,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2862,31 +2910,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,28 +2943,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2928,31 +2976,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2961,31 +3009,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,31 +3042,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,28 +3075,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3060,31 +3108,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,28 +3141,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3126,28 +3174,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3159,28 +3207,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3192,66 +3240,264 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3230.02</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>200</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>201</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>202</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>204</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>53</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>197</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>205</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>88</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>53</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>197</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>53</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>85</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>174</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>53</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>209</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>211</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>48</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>53</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>197</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>212</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>213</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>53</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>214</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3548.02</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>216</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>217</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>218</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3560,10 +3806,40 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -272,6 +272,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>NASOFLUTIN NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -482,6 +503,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -536,12 +569,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -659,7 +686,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 7:48 PM</t>
+    <t>Tuesday, 26 August, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2086,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2069,14 +2096,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,11 +2162,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2184,7 +2211,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2201,11 +2228,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2217,7 +2244,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2234,11 +2261,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,14 +2294,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2290,24 +2317,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2316,28 +2343,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,14 +2393,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2382,14 +2409,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,14 +2426,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2415,7 +2442,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2432,14 +2459,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,7 +2475,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2465,14 +2492,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2481,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2498,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2558,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,11 +2591,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,11 +2657,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2670,7 +2697,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2686,7 +2713,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,11 +2756,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2745,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,11 +2789,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,7 +2822,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2818,7 +2845,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,11 +2855,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2844,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2884,7 +2911,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2910,28 +2937,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2943,28 +2970,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2976,28 +3003,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3009,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3053,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>112</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,14 +3168,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3181,7 +3208,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3191,11 +3218,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,14 +3251,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,14 +3267,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,11 +3284,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,11 +3317,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,11 +3350,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,11 +3383,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3372,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,11 +3416,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3405,14 +3432,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3422,11 +3449,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3438,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,49 +3482,148 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3548.02</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>216</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>217</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>185</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>53</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>218</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>48</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>53</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>206</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>222</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>53</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>223</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3827.02</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>225</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>226</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>227</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3836,10 +3962,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -251,6 +251,18 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -434,9 +446,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -686,7 +695,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 7:50 PM</t>
+    <t>Tuesday, 26 August, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1987,24 +1996,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2013,20 +2022,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2037,7 +2046,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2070,7 +2079,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2244,7 +2253,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2277,7 +2286,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2294,11 +2303,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2350,24 +2359,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2376,28 +2385,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,7 +2484,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2713,7 +2722,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2746,7 +2755,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,11 +2897,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3010,7 +3019,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3036,24 +3045,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3076,7 +3085,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,11 +3095,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3142,7 +3151,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>195</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3274,7 +3283,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3307,7 +3316,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3449,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,7 +3524,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3538,7 +3547,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,49 +3590,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>224</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3827.02</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>225</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>53</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>226</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>227</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3850.0599999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>228</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>229</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>230</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3977,10 +4019,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -695,7 +695,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:05 PM</t>
+    <t>Tuesday, 26 August, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ARCHAR CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>ARYTHREX 200MG 20 CAP</t>
   </si>
   <si>
@@ -125,6 +137,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -170,9 +191,6 @@
     <t>COBALAMOUN 1000MCG30 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -695,7 +713,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:15 PM</t>
+    <t>Tuesday, 26 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,24 +1519,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1527,7 +1545,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1544,14 +1562,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1577,14 +1595,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1610,11 +1628,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1650,7 +1668,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1692,31 +1710,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1732,7 +1750,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1765,13 +1783,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1782,7 +1800,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1798,7 +1816,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1808,11 +1826,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1841,11 +1859,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1914,7 +1932,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1930,7 +1948,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1947,7 +1965,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1973,11 +1991,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2022,28 +2040,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,28 +2106,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2211,7 +2229,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2227,7 +2245,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2260,7 +2278,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2277,7 +2295,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2293,7 +2311,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2310,7 +2328,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2359,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,7 +2403,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2398,18 +2416,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2458,24 +2476,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2491,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2519,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2524,7 +2542,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2557,7 +2575,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2574,7 +2592,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,7 +2625,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2623,7 +2641,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2637,10 +2655,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2755,7 +2773,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2788,7 +2806,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2816,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,7 +2849,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2864,11 +2882,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,7 +2915,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,11 +3014,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,11 +3080,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3078,28 +3096,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3111,28 +3129,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3144,28 +3162,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3177,31 +3195,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3217,13 +3235,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3234,7 +3252,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,31 +3261,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,31 +3294,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>204</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3316,17 +3334,17 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3349,24 +3367,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,28 +3393,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3408,28 +3426,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3448,21 +3466,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3474,28 +3492,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3507,7 +3525,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3520,15 +3538,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3540,28 +3558,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3573,28 +3591,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3606,66 +3624,132 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3850.0599999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>228</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>229</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>55</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>33</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>215</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>230</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>231</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>33</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>232</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4049.0599999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>234</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>235</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>236</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4024,10 +4108,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -410,6 +410,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -428,6 +437,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -521,6 +536,9 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -713,7 +731,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:32 PM</t>
+    <t>Tuesday, 26 August, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2542,7 +2560,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2575,7 +2593,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2625,7 +2643,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2641,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,11 +2669,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2667,7 +2685,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2684,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2740,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2754,10 +2772,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2783,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2806,7 +2824,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2820,10 +2838,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,11 +2867,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,7 +2966,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2971,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,11 +3098,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,28 +3180,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3195,28 +3213,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3228,28 +3246,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3348,7 +3366,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>126</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,11 +3527,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,11 +3560,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3598,7 +3616,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3664,7 +3682,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3697,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3707,49 +3725,148 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>232</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>200</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>33</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>233</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4049.0599999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>234</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>235</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>55</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>33</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>221</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>236</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>237</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>33</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>238</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4155.3999999999996</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>240</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>241</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>242</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4118,10 +4235,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -128,12 +140,18 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -272,9 +290,6 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -509,6 +524,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -704,9 +725,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
@@ -731,7 +749,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:38 PM</t>
+    <t>Tuesday, 26 August, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1455,7 +1473,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1488,7 +1506,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1504,7 +1522,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1514,11 +1532,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1530,7 +1548,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1543,7 +1561,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1554,7 +1572,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1570,24 +1588,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1596,7 +1614,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1613,14 +1631,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1629,7 +1647,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1646,14 +1664,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1662,14 +1680,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1679,14 +1697,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1702,7 +1720,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1735,7 +1753,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1794,31 +1812,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1834,7 +1852,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1867,13 +1885,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1884,7 +1902,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1900,7 +1918,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,11 +1961,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1959,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,14 +1994,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2016,7 +2034,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2032,7 +2050,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2049,7 +2067,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2065,7 +2083,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,11 +2093,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,7 +2142,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2137,15 +2155,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2157,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2192,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2190,28 +2208,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,11 +2357,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2405,14 +2423,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2421,7 +2439,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2487,7 +2505,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2500,18 +2518,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,31 +2571,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,7 +2637,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2636,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,7 +2727,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2725,7 +2743,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,11 +2753,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2751,7 +2769,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2824,7 +2842,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2838,10 +2856,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2890,7 +2908,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2904,10 +2922,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,7 +2934,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2933,11 +2951,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,11 +3017,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,11 +3083,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,7 +3116,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,11 +3215,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,28 +3297,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3312,28 +3330,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3352,21 +3370,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3378,31 +3396,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,31 +3429,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,28 +3462,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3477,31 +3495,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,31 +3528,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,28 +3561,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3576,31 +3594,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3616,21 +3634,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3642,28 +3660,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3682,21 +3700,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3708,28 +3726,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3741,28 +3759,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3774,28 +3792,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3807,66 +3825,165 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>238</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>207</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>37</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>239</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4155.3999999999996</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>240</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>241</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>61</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>37</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>228</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>242</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>243</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>37</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>244</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4313.1099999999997</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>246</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>247</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>248</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4250,10 +4367,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -257,6 +269,24 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -269,9 +299,6 @@
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -320,9 +347,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -584,9 +608,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -596,13 +617,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8364:0</t>
+    <t>8362:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>WE.GEL GEL 75 GM</t>
@@ -659,45 +680,45 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>54:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>54:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t>11:2</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان اورل فريش</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -749,7 +770,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:39 PM</t>
+    <t>Tuesday, 26 August, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1774,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1779,14 +1800,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1817,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1836,7 +1857,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1869,7 +1890,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1878,31 +1899,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,31 +1932,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,11 +1982,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2050,7 +2071,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,11 +2147,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2175,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,7 +2229,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2221,18 +2242,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,28 +2328,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2378,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,7 +2460,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2584,18 +2605,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,31 +2691,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2776,7 +2797,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2826,7 +2847,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2842,7 +2863,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2908,7 +2929,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2922,10 +2943,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3007,7 +3028,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3021,10 +3042,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,7 +3071,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3073,7 +3094,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,7 +3137,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3139,7 +3160,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3271,7 +3292,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,11 +3335,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,31 +3417,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,28 +3450,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3469,21 +3490,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>131</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,14 +3665,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3677,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,11 +3797,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3799,7 +3820,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,11 +3830,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,49 +3962,148 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>245</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4313.1099999999997</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>214</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>37</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>246</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>247</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>248</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>65</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>37</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>234</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>250</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>37</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>251</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4354.5500000000002</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>253</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>254</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>255</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4382,10 +4502,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -617,13 +617,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8362:0</t>
+    <t>8363:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>WE.GEL GEL 75 GM</t>
@@ -3441,7 +3441,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -4073,7 +4073,7 @@
     </row>
     <row r="88" ht="24.75" customHeight="1">
       <c r="P88" s="13">
-        <v>4354.5500000000002</v>
+        <v>4352.5500000000002</v>
       </c>
       <c r="Q88" s="13"/>
     </row>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -668,9 +677,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>28:0</t>
   </si>
   <si>
@@ -770,7 +776,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:40 PM</t>
+    <t>Tuesday, 26 August, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2599,7 +2605,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2665,7 +2671,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2675,14 +2681,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2691,31 +2697,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2731,17 +2737,17 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2764,7 +2770,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2797,7 +2803,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,14 +2813,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2830,7 +2836,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2863,7 +2869,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2929,7 +2935,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2946,7 +2952,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2962,7 +2968,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2979,7 +2985,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2995,7 +3001,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3009,7 +3015,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,7 +3060,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3100,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3127,7 +3133,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3160,7 +3166,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,11 +3176,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3292,7 +3298,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,11 +3308,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3358,7 +3364,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,11 +3374,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3384,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3408,7 +3414,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3424,7 +3430,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,14 +3440,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3474,7 +3480,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3490,7 +3496,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,11 +3506,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3516,24 +3522,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3556,7 +3562,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3572,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3605,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3622,7 +3628,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,14 +3770,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,11 +3803,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3813,14 +3819,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,11 +3836,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3863,11 +3869,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,11 +3935,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3945,14 +3951,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,11 +3968,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,11 +4001,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4011,14 +4017,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,49 +4067,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>252</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4352.5500000000002</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>37</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>253</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4408.5500000000002</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>255</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>256</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>257</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4517,10 +4556,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -593,6 +602,15 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -617,12 +635,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -776,7 +788,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:42 PM</t>
+    <t>Tuesday, 26 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2176,7 +2188,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2193,7 +2205,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2209,7 +2221,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2275,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2341,13 +2353,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2358,7 +2370,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2374,24 +2386,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2424,7 +2436,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2440,7 +2452,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2450,11 +2462,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2490,7 +2502,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2506,7 +2518,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2539,7 +2551,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2572,7 +2584,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2589,7 +2601,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2605,7 +2617,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2638,7 +2650,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2704,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2730,31 +2742,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2770,17 +2782,17 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2803,7 +2815,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2836,7 +2848,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2869,7 +2881,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2902,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2968,7 +2980,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2985,7 +2997,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3001,7 +3013,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3018,7 +3030,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3034,7 +3046,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3048,7 +3060,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,7 +3105,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3133,7 +3145,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3166,7 +3178,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3199,7 +3211,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3209,11 +3221,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3331,7 +3343,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,11 +3353,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3397,7 +3409,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3423,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,28 +3567,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3588,28 +3600,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,11 +3650,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3654,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3687,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3704,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3737,14 +3749,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,11 +3815,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,14 +3848,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,11 +3881,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,11 +3914,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,11 +3947,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,11 +3980,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3984,7 +3996,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4001,11 +4013,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,11 +4046,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4057,7 +4069,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,11 +4079,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4090,7 +4102,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,49 +4112,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>254</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4408.5500000000002</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>65</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>37</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>240</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>255</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>256</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>37</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>257</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4448.3800000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>259</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>260</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>261</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4561,10 +4639,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -701,6 +701,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -755,6 +764,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -788,7 +800,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:45 PM</t>
+    <t>Tuesday, 26 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3871,7 +3883,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3904,7 +3916,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3937,7 +3949,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3980,11 +3992,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,11 +4025,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,11 +4058,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4062,7 +4074,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4135,7 +4147,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,11 +4157,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4168,7 +4180,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,49 +4190,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>258</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4448.3800000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>65</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>37</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>243</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>259</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>260</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>37</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>261</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4472.3800000000001</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>263</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4649,10 +4727,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:47 PM</t>
+    <t>Tuesday, 26 August, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -800,7 +809,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:51 PM</t>
+    <t>Tuesday, 26 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,11 +2516,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2547,7 +2556,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2596,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2629,7 +2638,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2646,7 +2655,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2662,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2695,7 +2704,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2761,7 +2770,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,31 +2796,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2827,17 +2836,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2860,7 +2869,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3075,7 +3084,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3105,7 +3114,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,7 +3159,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3223,7 +3232,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3256,7 +3265,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,11 +3275,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3388,7 +3397,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3414,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,11 +3440,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3454,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3471,7 +3480,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3487,7 +3496,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3603,7 +3612,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3619,7 +3628,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3645,24 +3654,24 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3685,7 +3694,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,11 +3704,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,11 +3737,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3751,7 +3760,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,7 +3786,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3794,14 +3803,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>118</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3817,7 +3826,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3916,7 +3925,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3982,7 +3991,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4025,11 +4034,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4074,7 +4083,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4091,11 +4100,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,11 +4199,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4213,7 +4222,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,11 +4232,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,49 +4265,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>262</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4472.3800000000001</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
         <v>263</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>37</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>264</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>265</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4489.6599999999999</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>266</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>267</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>268</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4779,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -644,6 +644,12 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -698,7 +704,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -809,7 +818,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:53 PM</t>
+    <t>Tuesday, 26 August, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3562,7 +3571,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3576,10 +3585,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,11 +3614,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>65</v>
@@ -3621,7 +3630,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3675,7 +3684,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3687,7 +3696,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3704,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3753,7 +3762,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3786,7 +3795,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,7 +3828,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>121</v>
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3869,7 +3878,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3902,11 +3911,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3939,7 +3948,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>148</v>
@@ -3951,7 +3960,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3968,11 +3977,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4083,7 +4092,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4100,11 +4109,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4116,7 +4125,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4149,7 +4158,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4182,7 +4191,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4248,7 +4257,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4265,11 +4274,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4298,11 +4307,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4310,13 +4319,13 @@
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="P94" s="13">
-        <v>4489.6599999999999</v>
+        <v>4508.4899999999998</v>
       </c>
       <c r="Q94" s="13"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
       <c t="s" r="A95" s="14">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4324,13 +4333,13 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c t="s" r="G95" s="15">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
       <c t="s" r="K95" s="17">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -383,6 +392,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -677,6 +692,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -818,7 +842,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:54 PM</t>
+    <t>Tuesday, 26 August, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2350,7 +2374,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,11 +2384,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2376,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2416,13 +2440,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2433,7 +2457,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2449,24 +2473,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2492,14 +2516,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2532,7 +2556,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,11 +2582,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2574,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2598,7 +2622,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2614,7 +2638,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2628,10 +2652,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2640,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2673,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2714,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2706,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,7 +2763,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2756,11 +2780,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2772,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,11 +2813,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2805,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,7 +2862,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2851,18 +2875,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2895,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2904,31 +2928,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,7 +2994,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2987,11 +3011,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,7 +3084,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3076,7 +3100,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,11 +3110,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3102,7 +3126,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3119,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3175,7 +3199,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3189,10 +3213,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,11 +3242,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3241,7 +3265,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3255,10 +3279,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3300,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,7 +3341,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3340,7 +3364,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,7 +3440,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3439,7 +3463,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3473,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3498,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3680,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3703,13 +3727,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3736,21 +3760,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3769,13 +3793,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3802,7 +3826,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3835,7 +3859,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3894,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3981,10 +4005,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4010,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4043,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4066,7 +4090,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,11 +4100,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,11 +4133,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4125,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4191,7 +4215,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4208,11 +4232,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4224,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,11 +4265,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4257,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,11 +4298,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4290,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,49 +4331,148 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4508.4899999999998</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>269</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>234</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>37</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>270</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>271</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>272</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>65</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>37</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>257</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>273</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>274</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>37</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>275</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4759.4899999999998</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>277</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>278</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>279</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4793,10 +4916,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:55 PM</t>
+    <t>Tuesday, 26 August, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -230,10 +230,13 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>105.00</t>
   </si>
   <si>
-    <t>34.6500</t>
+    <t>69.3000</t>
   </si>
   <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
@@ -248,9 +251,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -518,6 +518,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -644,6 +653,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -842,7 +860,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 8:59 PM</t>
+    <t>Tuesday, 26 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2044,7 +2062,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2070,7 +2088,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2087,11 +2105,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2275,7 +2293,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2704,7 +2722,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3100,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3166,7 +3184,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3183,7 +3201,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3199,7 +3217,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3216,7 +3234,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3232,7 +3250,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3246,7 +3264,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,7 +3309,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,7 +3349,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3364,7 +3382,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3397,7 +3415,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3425,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3529,7 +3547,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,11 +3557,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,11 +3590,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3595,7 +3613,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3612,7 +3630,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3628,7 +3646,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3821,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3819,24 +3837,24 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3859,21 +3877,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,11 +3920,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3958,7 +3976,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3975,7 +3993,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3991,7 +4009,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>65</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4024,7 +4042,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>153</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4090,7 +4108,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,7 +4118,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4123,7 +4141,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4156,7 +4174,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4222,7 +4240,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,11 +4316,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4314,7 +4332,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,11 +4382,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,49 +4448,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4759.4899999999998</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>277</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>278</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>65</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>37</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>263</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>279</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>280</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>37</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>281</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4972.1400000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>283</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>284</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>285</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4931,10 +5015,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -860,7 +860,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:02 PM</t>
+    <t>Tuesday, 26 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -443,6 +452,12 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -551,6 +566,15 @@
     <t>195.0000</t>
   </si>
   <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>NASOFLUTIN NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -860,7 +884,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:03 PM</t>
+    <t>Tuesday, 26 August, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2095,7 +2119,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2112,7 +2136,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2128,7 +2152,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2161,7 +2185,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2171,11 +2195,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,11 +2228,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2237,11 +2261,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,11 +2294,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2293,7 +2317,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2310,7 +2334,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2326,7 +2350,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2336,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2392,7 +2416,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2409,7 +2433,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2425,7 +2449,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2435,11 +2459,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2491,13 +2515,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2508,7 +2532,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2524,24 +2548,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2607,7 +2631,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2623,7 +2647,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2633,11 +2657,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2670,7 +2694,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2682,7 +2706,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2699,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2722,7 +2746,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2755,7 +2779,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2788,7 +2812,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2805,7 +2829,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2821,7 +2845,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2854,7 +2878,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2887,7 +2911,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,14 +2954,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,7 +2970,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2959,18 +2983,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2979,14 +3003,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2996,14 +3020,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3012,31 +3036,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,14 +3086,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3078,7 +3102,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3095,11 +3119,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3132,10 +3156,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3144,14 +3168,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,7 +3225,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3217,7 +3241,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,11 +3251,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3243,7 +3267,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3276,14 +3300,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3317,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3316,13 +3340,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3330,10 +3354,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,11 +3383,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3375,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,11 +3416,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3415,7 +3439,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3429,10 +3453,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,7 +3482,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3481,7 +3505,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,14 +3531,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,7 +3548,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3547,7 +3571,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,11 +3614,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3606,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3663,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3746,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3837,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3878,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3894,7 +3918,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3910,13 +3934,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3943,21 +3967,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3976,13 +4000,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4009,7 +4033,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4042,7 +4066,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4076,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,14 +4092,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4175,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4188,10 +4212,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4233,14 +4257,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4274,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4273,7 +4297,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,11 +4307,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4299,14 +4323,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,11 +4340,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4332,14 +4356,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,11 +4373,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4365,14 +4389,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4406,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4398,7 +4422,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4415,11 +4439,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4431,14 +4455,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,11 +4472,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4464,14 +4488,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4505,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4497,14 +4521,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,49 +4538,148 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4972.1400000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>283</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>248</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>37</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>284</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>285</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>286</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>65</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>37</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>271</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>287</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>288</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>37</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>289</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5108.1400000000003</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>291</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>292</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>293</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5025,10 +5148,25 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -290,10 +290,25 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
@@ -548,6 +563,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -632,9 +659,6 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -770,10 +794,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>37:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -809,9 +833,6 @@
     <t>11:2</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -884,7 +905,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:17 PM</t>
+    <t>Tuesday, 26 August, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,11 +2513,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,31 +2562,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2574,31 +2595,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,11 +2744,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2739,7 +2760,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,11 +2810,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2822,11 +2843,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,11 +2909,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,7 +2991,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,31 +3057,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,28 +3090,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,7 +3222,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3218,11 +3239,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,14 +3272,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,31 +3354,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3399,28 +3420,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,11 +3503,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,11 +3569,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,11 +3602,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,14 +3635,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3668,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3663,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,11 +3701,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,11 +3767,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3762,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,7 +3816,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3812,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,11 +3866,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,11 +4031,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4026,28 +4047,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4059,28 +4080,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,11 +4130,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4142,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>65</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>158</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4307,11 +4328,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,14 +4361,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,11 +4394,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,11 +4427,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4422,14 +4443,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4439,11 +4460,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4455,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4472,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4488,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4505,11 +4526,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4521,7 +4542,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4538,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4554,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4571,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4587,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4620,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4637,49 +4658,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5108.1400000000003</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>291</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>292</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>293</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>65</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>37</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>278</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>294</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>295</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>37</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>296</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5263.1400000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>298</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>299</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>300</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5163,10 +5250,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>23.0400</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -491,6 +500,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -905,7 +917,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:18 PM</t>
+    <t>Tuesday, 26 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,13 +2614,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2635,24 +2647,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2718,7 +2730,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2734,7 +2746,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2833,7 +2845,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2866,7 +2878,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2899,7 +2911,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2916,7 +2928,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2932,7 +2944,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2965,7 +2977,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3064,7 +3076,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,14 +3119,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3152,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,31 +3168,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>163</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3222,7 +3234,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3239,11 +3251,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,14 +3284,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3338,11 +3350,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3387,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,31 +3432,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3482,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3486,28 +3498,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3548,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3559,7 +3571,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3573,7 +3585,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3602,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3750,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,7 +3845,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3856,7 +3868,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,7 +3894,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3948,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4080,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,11 +4109,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4113,28 +4125,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4146,28 +4158,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4208,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4307,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>65</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>163</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,11 +4472,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,11 +4505,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4509,14 +4521,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,11 +4538,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4542,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4559,11 +4571,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4575,14 +4587,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,11 +4604,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4608,7 +4620,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4625,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4641,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4681,7 +4693,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,11 +4703,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4714,7 +4726,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,49 +4736,115 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>297</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5263.1400000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>65</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>37</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>282</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>298</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
         <v>299</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>37</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
         <v>300</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5450.1400000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>302</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>303</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>304</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5260,10 +5338,20 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -425,6 +437,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
     <t>FUNGICAN 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -467,6 +491,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -575,6 +608,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -629,6 +671,15 @@
     <t>29.00</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -722,6 +773,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -794,6 +854,9 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>بيبرونه SHEKO كبيره</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -806,10 +869,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>37:0</t>
+    <t>45:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -818,9 +878,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -857,12 +914,6 @@
     <t>فرش اسنان اورل فريش</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -872,9 +923,6 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -911,13 +959,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 26 August, 2025 9:30 PM</t>
+    <t>Tuesday, 26 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2185,7 +2227,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2195,11 +2237,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2211,14 +2253,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,11 +2270,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2244,14 +2286,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2334,7 +2376,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2360,14 +2402,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2376,14 +2418,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,14 +2435,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,14 +2468,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2442,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2525,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,11 +2600,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2574,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2633,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2649,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,28 +2682,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2673,31 +2715,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2746,7 +2788,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2798,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2772,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2812,7 +2854,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,11 +2864,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2838,14 +2880,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,14 +2897,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2871,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,11 +2963,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2937,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2954,14 +2996,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +3029,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3003,14 +3045,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,14 +3062,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,11 +3095,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3069,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,11 +3128,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3102,31 +3144,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3135,14 +3177,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,14 +3194,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3168,7 +3210,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3181,18 +3223,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,31 +3243,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,31 +3309,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>167</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,14 +3342,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,14 +3359,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3333,7 +3375,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3350,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3366,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,14 +3425,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3399,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3432,7 +3474,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3449,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3465,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,11 +3524,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3498,28 +3540,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3531,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,11 +3590,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3564,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3597,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,28 +3672,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3663,7 +3705,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3680,11 +3722,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3696,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,11 +3755,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3729,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,11 +3788,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3762,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3828,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,7 +3903,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3878,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,7 +3936,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3911,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,11 +4019,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3993,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4059,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4083,7 +4125,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,7 +4141,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4132,7 +4174,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,11 +4184,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4158,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4191,28 +4233,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4224,31 +4266,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,31 +4299,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4332,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,7 +4365,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4336,18 +4378,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,31 +4398,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,11 +4448,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4422,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,11 +4514,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4488,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,11 +4547,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4521,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4575,10 +4617,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4637,11 +4679,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4653,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4728,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,11 +4745,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4719,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4752,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4785,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,49 +4844,280 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5450.1400000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>302</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>303</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>306</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>12</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>37</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
         <v>304</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>307</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>12</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>37</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>221</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>308</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>139</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>37</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>221</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>309</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>12</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>37</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>133</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>310</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>280</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>37</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>311</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>313</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>65</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>37</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>221</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>314</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>315</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>37</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>200</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6101.1400000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>316</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>317</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>318</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5348,10 +5621,45 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -617,6 +626,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -959,7 +977,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:35 PM</t>
+    <t>Tuesday, 26 August, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2227,7 +2245,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2293,7 +2311,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2326,7 +2344,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2336,11 +2354,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2369,11 +2387,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2385,14 +2403,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2458,7 +2476,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2468,14 +2486,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2491,7 +2509,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2508,7 +2526,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2524,7 +2542,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2550,14 +2568,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2585,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2607,7 +2625,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2623,7 +2641,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2633,11 +2651,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2689,7 +2707,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2706,7 +2724,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2722,13 +2740,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2755,24 +2773,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2798,14 +2816,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2838,7 +2856,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2854,7 +2872,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,11 +2882,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2915,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2934,10 +2952,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2946,7 +2964,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2986,7 +3004,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3019,7 +3037,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3052,7 +3070,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3069,7 +3087,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3085,7 +3103,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3118,7 +3136,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3151,7 +3169,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3179,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3250,21 +3268,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3276,31 +3294,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3309,31 +3327,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3349,17 +3367,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3382,7 +3400,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3410,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3415,7 +3433,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,14 +3443,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3448,7 +3466,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3476,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3514,7 +3532,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3542,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3575,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3580,7 +3598,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,11 +3608,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,14 +3641,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3663,7 +3681,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3679,13 +3697,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3696,7 +3714,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3712,7 +3730,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3729,7 +3747,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3745,13 +3763,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3759,7 +3777,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3771,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,11 +3806,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,14 +3839,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,11 +3872,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3910,7 +3928,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3943,7 +3961,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,11 +3971,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3969,14 +3987,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4037,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,11 +4070,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,14 +4103,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,11 +4136,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4134,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4169,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,7 +4209,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4207,7 +4225,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4240,7 +4258,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4301,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4400,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,11 +4433,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4431,24 +4449,24 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4471,21 +4489,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4497,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,11 +4532,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4530,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,11 +4565,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4563,7 +4581,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4580,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>65</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4680,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4697,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4712,14 +4730,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>178</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,11 +4763,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4761,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4829,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4827,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4862,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4860,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,11 +4895,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4893,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4926,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4959,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4976,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5060,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5058,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,49 +5093,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6101.1400000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>316</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>317</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>318</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>319</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>65</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>37</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>227</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>320</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>321</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>37</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>203</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6204.9949999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>322</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>323</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>324</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5656,10 +5740,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALLEAR 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALPHAVIM 300 - 20 CAPS.</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -398,9 +407,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -614,9 +620,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -887,7 +890,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>45:0</t>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>48:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -977,7 +983,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:37 PM</t>
+    <t>Tuesday, 26 August, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1668,7 +1674,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1701,7 +1707,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1734,7 +1740,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1750,7 +1756,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1760,14 +1766,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1776,14 +1782,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1800,7 +1806,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1816,24 +1822,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1842,20 +1848,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1866,7 +1872,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1882,7 +1888,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1899,7 +1905,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1915,7 +1921,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1925,14 +1931,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1981,7 +1987,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2031,7 +2037,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2047,7 +2053,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2080,7 +2086,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2123,14 +2129,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2146,13 +2152,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2163,7 +2169,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2179,24 +2185,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2245,7 +2251,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2262,7 +2268,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2278,7 +2284,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2288,14 +2294,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2328,7 +2334,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2344,7 +2350,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2361,7 +2367,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2377,7 +2383,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2387,14 +2393,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2420,14 +2426,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2486,14 +2492,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2509,7 +2515,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2542,7 +2548,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2559,7 +2565,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2575,7 +2581,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,14 +2591,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2641,7 +2647,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2658,7 +2664,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2674,7 +2680,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2740,7 +2746,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2773,13 +2779,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2790,7 +2796,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2806,24 +2812,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3004,7 +3010,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3018,10 +3024,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3030,14 +3036,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3047,14 +3053,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3080,14 +3086,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3129,7 +3135,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3179,14 +3185,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3235,7 +3241,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3294,7 +3300,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3307,18 +3313,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3327,31 +3333,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3360,31 +3366,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3393,31 +3399,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3426,14 +3432,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3513,10 +3519,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,14 +3581,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3598,7 +3604,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,14 +3614,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3696,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3713,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3723,7 +3729,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3740,14 +3746,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3756,31 +3762,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,7 +3795,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3802,18 +3808,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3845,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,14 +3911,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3954,14 +3960,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,14 +3977,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,14 +4026,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4043,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,14 +4076,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4109,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4142,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,14 +4158,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4175,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4192,7 +4198,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,14 +4208,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4251,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,14 +4290,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,14 +4307,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4317,14 +4323,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4340,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,14 +4356,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4406,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4449,7 +4455,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4466,14 +4472,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4482,14 +4488,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4515,31 +4521,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,31 +4554,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,31 +4587,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4621,24 +4627,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,31 +4653,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,31 +4686,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>142</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4720,24 +4726,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,31 +4752,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,31 +4785,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4819,24 +4825,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>142</v>
+        <v>304</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,31 +4851,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4878,31 +4884,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4918,24 +4924,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4944,31 +4950,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,31 +4983,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,31 +5016,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,31 +5049,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5076,31 +5082,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>138</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5109,31 +5115,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5142,66 +5148,99 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>322</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>323</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>40</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
         <v>204</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6204.9949999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>322</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>323</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6234.7550000000001</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>324</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>325</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>326</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5750,10 +5789,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -47,33 +47,33 @@
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALLEAR 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ALLEAR 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>ALPHAVIM 300 - 20 CAPS.</t>
   </si>
   <si>
@@ -887,6 +887,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -983,7 +986,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:39 PM</t>
+    <t>Tuesday, 26 August, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1660,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1667,14 +1670,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1773,7 +1776,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1822,7 +1825,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1855,7 +1858,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1872,7 +1875,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1888,7 +1891,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1921,7 +1924,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1954,7 +1957,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1971,7 +1974,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1987,7 +1990,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2004,7 +2007,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2086,7 +2089,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2103,7 +2106,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2185,7 +2188,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2202,7 +2205,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2268,7 +2271,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2284,7 +2287,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2301,7 +2304,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2499,7 +2502,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2614,7 +2617,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2631,7 +2634,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2680,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2697,7 +2700,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2723,14 +2726,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2779,7 +2782,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2796,7 +2799,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2829,7 +2832,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2928,7 +2931,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2961,7 +2964,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3010,7 +3013,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3027,7 +3030,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3043,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3142,7 +3145,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3159,7 +3162,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3175,7 +3178,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3192,7 +3195,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,7 +3228,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3274,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3291,7 +3294,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3307,7 +3310,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3324,7 +3327,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3340,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3357,7 +3360,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3406,7 +3409,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3472,7 +3475,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3489,7 +3492,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3538,7 +3541,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3555,7 +3558,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3571,7 +3574,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3588,7 +3591,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3604,7 +3607,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3654,7 +3657,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,7 +3723,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3736,7 +3739,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3802,7 +3805,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3819,7 +3822,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3835,7 +3838,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3852,7 +3855,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,7 +3888,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,7 +3921,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,7 +3987,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4000,7 +4003,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4017,7 +4020,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,7 +4053,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,7 +4086,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4132,7 +4135,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4149,7 +4152,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4175,7 +4178,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4281,7 +4284,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,7 +4317,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4330,7 +4333,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4347,7 +4350,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4380,7 +4383,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4462,7 +4465,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4479,7 +4482,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4495,7 +4498,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4512,7 +4515,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,7 +4548,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,7 +4581,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,7 +4614,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4627,7 +4630,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4644,7 +4647,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4677,7 +4680,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4693,7 +4696,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>294</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>144</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4818,14 +4821,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,14 +4838,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4851,14 +4854,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4884,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4901,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4924,7 +4927,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4941,7 +4944,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5023,7 +5026,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5033,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5056,7 +5059,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5073,7 +5076,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5089,7 +5092,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5122,7 +5125,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5148,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5188,7 +5191,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5198,49 +5201,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>323</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>324</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>40</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>204</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>205</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6234.7550000000001</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>324</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6279.7550000000001</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>325</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
         <v>326</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>327</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5794,10 +5830,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:40 PM</t>
+    <t>Tuesday, 26 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -608,6 +608,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
   </si>
   <si>
@@ -641,9 +653,6 @@
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -695,12 +704,6 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -986,7 +989,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:42 PM</t>
+    <t>Tuesday, 26 August, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3574,7 +3577,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3600,14 +3603,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3723,7 +3726,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3739,7 +3742,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3756,7 +3759,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3772,7 +3775,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3789,7 +3792,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3805,13 +3808,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3822,7 +3825,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3838,13 +3841,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3871,7 +3874,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3885,7 +3888,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3937,7 +3940,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3963,7 +3966,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3980,14 +3983,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4115,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4234,7 +4237,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,11 +4313,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,11 +4346,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,11 +4379,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,11 +4511,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,11 +4544,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4557,28 +4560,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4590,14 +4593,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4623,14 +4626,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,11 +4643,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4663,7 +4666,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4709,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4729,7 +4732,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4742,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,7 +4758,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4772,14 +4775,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>144</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,14 +4791,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4808,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4824,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4874,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4887,14 +4890,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4907,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,11 +4940,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4960,7 +4963,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,11 +4973,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5006,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,11 +5039,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5069,11 +5072,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5092,7 +5095,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5105,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5125,7 +5128,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5138,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5158,7 +5161,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5171,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5204,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5224,7 +5227,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,49 +5237,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6279.7550000000001</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>324</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
         <v>325</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>40</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>208</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6294.7550000000001</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>326</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
         <v>327</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>328</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5835,10 +5871,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>COBALAMOUN 1000MCG30 TAB</t>
   </si>
   <si>
@@ -455,390 +464,390 @@
     <t>FORTUM 1 GM VIAL.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NASOFLUTIN NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8361:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>212.0000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>GABALEPSY 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>LOPRECOUGH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NASOFLUTIN NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8363:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>WE.GEL GEL 75 GM</t>
   </si>
   <si>
@@ -896,10 +905,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>48:0</t>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>42:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -989,7 +998,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:43 PM</t>
+    <t>Tuesday, 26 August, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2191,13 +2200,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2224,24 +2233,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2274,7 +2283,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2290,7 +2299,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2323,7 +2332,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2389,7 +2398,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2422,7 +2431,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2554,7 +2563,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2587,7 +2596,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2604,7 +2613,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2620,7 +2629,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2686,7 +2695,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2703,7 +2712,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2785,7 +2794,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2802,7 +2811,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2818,21 +2827,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2844,31 +2853,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2934,7 +2943,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2950,7 +2959,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3030,7 +3039,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3042,7 +3051,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3082,7 +3091,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3115,7 +3124,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3148,7 +3157,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3165,7 +3174,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3214,7 +3223,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3247,7 +3256,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3346,21 +3355,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3372,31 +3381,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3405,31 +3414,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3445,17 +3454,17 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3478,7 +3487,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3511,7 +3520,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3544,7 +3553,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3587,11 +3596,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3834,31 +3843,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3867,28 +3876,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3917,11 +3926,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3940,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3950,11 +3959,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,10 +4029,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4049,11 +4058,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4115,7 +4124,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4138,7 +4147,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4204,7 +4213,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4247,11 +4256,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4280,11 +4289,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,11 +4355,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4379,11 +4388,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4412,11 +4421,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4428,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4445,14 +4454,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4478,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>114</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4494,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>278</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4534,7 +4543,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4560,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4577,7 +4586,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4600,13 +4609,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4633,7 +4642,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,11 +4652,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,11 +4685,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,11 +4718,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4732,7 +4741,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,11 +4751,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4758,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4775,14 +4784,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4808,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>144</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4824,14 +4833,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4845,10 +4854,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4874,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4907,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4923,14 +4932,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4940,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,7 +4972,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,11 +4982,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4989,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,11 +5015,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5022,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,11 +5048,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5062,7 +5071,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5088,7 +5097,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5105,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5121,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5154,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5171,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5187,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>141</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5227,7 +5236,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5253,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,49 +5279,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6294.7550000000001</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>326</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>327</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>328</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>40</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>210</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6253.7550000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>329</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>330</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>331</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5876,10 +5918,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:54 PM</t>
+    <t>Tuesday, 26 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BIOWORLD TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -449,6 +458,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>92.0700</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -776,6 +794,12 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>167.5800</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -791,9 +815,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -833,6 +854,9 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -998,7 +1022,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 9:55 PM</t>
+    <t>Tuesday, 26 August, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2068,13 +2092,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2085,7 +2109,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2101,7 +2125,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2118,7 +2142,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2134,7 +2158,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2144,14 +2168,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2160,14 +2184,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2200,7 +2224,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2217,7 +2241,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2233,13 +2257,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2266,24 +2290,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2292,14 +2316,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2316,7 +2340,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2332,7 +2356,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2365,7 +2389,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2375,14 +2399,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2391,14 +2415,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2431,7 +2455,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2464,7 +2488,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2474,11 +2498,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2490,14 +2514,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,11 +2531,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,14 +2564,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2556,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2596,7 +2620,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2629,7 +2653,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2646,7 +2670,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2662,7 +2686,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,14 +2712,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2705,14 +2729,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2728,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2745,7 +2769,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2761,7 +2785,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2771,11 +2795,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2827,7 +2851,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2844,7 +2868,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2860,21 +2884,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2886,31 +2910,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2936,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2976,7 +3000,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2992,7 +3016,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3026,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3018,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,11 +3092,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3091,7 +3115,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3117,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3157,7 +3181,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3190,7 +3214,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3207,7 +3231,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3223,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3240,7 +3264,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3256,7 +3280,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3289,7 +3313,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3299,14 +3323,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3315,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,11 +3356,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3388,21 +3412,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3414,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,14 +3455,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,14 +3521,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>192</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3520,13 +3544,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3537,7 +3561,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3563,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>186</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3619,7 +3643,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,14 +3653,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3685,7 +3709,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,11 +3785,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3784,7 +3808,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3817,7 +3841,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3834,7 +3858,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3850,7 +3874,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3867,7 +3891,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3883,13 +3907,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3900,7 +3924,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3916,7 +3940,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3933,7 +3957,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3949,13 +3973,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3963,7 +3987,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,11 +4016,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4008,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4114,7 +4138,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4147,7 +4171,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4173,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,11 +4247,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4239,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4272,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4338,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4477,7 +4501,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,7 +4551,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>278</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,7 +4593,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4586,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4602,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>286</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4642,13 +4666,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4675,21 +4699,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4708,21 +4732,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4734,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4767,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,11 +4808,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4800,7 +4824,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4817,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4874,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4906,7 +4930,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>307</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4939,7 +4963,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4972,7 +4996,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5005,7 +5029,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5015,11 +5039,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>204</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5031,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,11 +5105,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5097,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,11 +5138,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5130,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,11 +5171,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5163,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5196,7 +5220,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5213,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5229,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5262,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5295,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,49 +5336,148 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6253.7550000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>329</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>330</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>331</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>299</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>40</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>332</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>334</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>71</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>40</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>209</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>335</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>336</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>40</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>216</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6739.8249999999998</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>337</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>338</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>339</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5923,10 +6046,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -236,6 +245,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
   </si>
   <si>
@@ -254,6 +272,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -377,6 +407,18 @@
     <t>312.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 MG/3ML 6AMPS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>27.5000</t>
+  </si>
+  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
@@ -518,12 +560,6 @@
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -578,6 +614,15 @@
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -587,9 +632,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -719,6 +761,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -734,6 +782,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOPI 20MG 20 ENTERIC COATED TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -791,6 +848,9 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>STOPADOL 500MG 20 TABS.</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -881,6 +941,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>ZITHRODOSE 500MG 5 CAPSULES</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -902,9 +971,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -917,9 +983,6 @@
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -929,10 +992,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>42:0</t>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>51:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -968,9 +1031,6 @@
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>55.0000</t>
   </si>
   <si>
@@ -1016,13 +1076,16 @@
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:04 PM</t>
+    <t>Tuesday, 26 August, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1858,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1812,7 +1875,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1828,7 +1891,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1838,14 +1901,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1854,14 +1917,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1900,18 +1963,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1920,20 +1983,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1944,7 +2007,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2003,14 +2066,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2019,7 +2082,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2036,7 +2099,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -2059,7 +2122,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2069,14 +2132,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2085,20 +2148,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2109,7 +2172,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2125,13 +2188,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2142,7 +2205,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2158,7 +2221,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2175,7 +2238,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2191,7 +2254,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2201,14 +2264,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2217,14 +2280,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2234,14 +2297,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2257,7 +2320,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2274,7 +2337,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2290,13 +2353,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2323,7 +2386,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2333,14 +2396,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,28 +2412,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2382,14 +2445,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2406,7 +2469,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2439,7 +2502,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2455,7 +2518,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2472,7 +2535,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2488,7 +2551,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2505,7 +2568,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2554,7 +2617,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,11 +2627,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2580,14 +2643,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,14 +2660,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,14 +2676,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,14 +2693,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,14 +2709,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2686,7 +2749,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2759,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2712,14 +2775,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2729,14 +2792,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2745,14 +2808,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,11 +2825,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2778,14 +2841,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,14 +2858,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2811,14 +2874,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,14 +2891,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,14 +2907,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2924,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,14 +2940,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2957,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2910,28 +2973,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2943,14 +3006,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,14 +3023,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,14 +3039,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +3056,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,14 +3072,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,11 +3089,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3042,31 +3105,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3075,14 +3138,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,14 +3155,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,7 +3195,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3148,7 +3211,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3162,7 +3225,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3174,14 +3237,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3191,14 +3254,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,14 +3270,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3287,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3240,14 +3303,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3257,14 +3320,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3273,7 +3336,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3290,11 +3353,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3306,14 +3369,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3386,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,14 +3402,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3419,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3372,14 +3435,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,14 +3452,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,7 +3468,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3422,11 +3485,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3438,14 +3501,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,11 +3518,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3471,28 +3534,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3504,14 +3567,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3584,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3537,7 +3600,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3550,18 +3613,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3570,14 +3633,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,14 +3650,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3603,7 +3666,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3616,15 +3679,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3636,31 +3699,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3669,14 +3732,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,14 +3749,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3702,31 +3765,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3735,14 +3798,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3815,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3768,14 +3831,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3785,14 +3848,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3864,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,14 +3881,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3834,14 +3897,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,14 +3914,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,14 +3930,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,11 +3947,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3900,7 +3963,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3917,14 +3980,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,14 +3996,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,11 +4013,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3966,28 +4029,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3999,14 +4062,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4079,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4095,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,11 +4112,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4072,7 +4135,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,14 +4145,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4098,14 +4161,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,14 +4178,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4131,28 +4194,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4164,7 +4227,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4181,11 +4244,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4197,14 +4260,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,11 +4277,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4230,14 +4293,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,11 +4310,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4263,14 +4326,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4343,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4303,7 +4366,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4376,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4336,7 +4399,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,14 +4409,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4369,7 +4432,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,14 +4442,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4402,7 +4465,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4419,7 +4482,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4435,7 +4498,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4449,10 +4512,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4461,14 +4524,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,7 +4541,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4501,7 +4564,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4518,7 +4581,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4534,7 +4597,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4544,11 +4607,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4560,14 +4623,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4640,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,14 +4656,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,14 +4673,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4626,14 +4689,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,14 +4706,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>286</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4722,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4739,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4755,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4772,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4788,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,11 +4805,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4758,28 +4821,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4791,28 +4854,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4824,31 +4887,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4864,21 +4927,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4890,31 +4953,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,31 +4986,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,7 +5019,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4969,18 +5032,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,31 +5052,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,28 +5085,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5055,31 +5118,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,28 +5151,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5121,28 +5184,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5154,28 +5217,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5187,28 +5250,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5220,7 +5283,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5233,18 +5296,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5253,7 +5316,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5266,18 +5329,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,31 +5349,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5319,28 +5382,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5352,31 +5415,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,28 +5448,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5418,66 +5481,396 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6739.8249999999998</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>337</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>338</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>339</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>342</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>343</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>43</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>223</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>344</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>306</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>43</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>345</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>347</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>43</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>345</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>348</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>43</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>223</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>349</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>167</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>43</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>223</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>350</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>12</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>43</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>158</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>351</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>321</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>43</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>352</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>354</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>74</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>43</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>223</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>355</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>102</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>43</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>134</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>356</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>357</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>43</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>230</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7269.3249999999998</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>358</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>359</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>360</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6061,10 +6454,60 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -1085,7 +1085,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:08 PM</t>
+    <t>Tuesday, 26 August, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -908,10 +908,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>50.4900</t>
   </si>
   <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
@@ -1085,7 +1085,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:24 PM</t>
+    <t>Tuesday, 26 August, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4911,7 +4911,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5840,7 +5840,7 @@
     </row>
     <row r="132" ht="25.5" customHeight="1">
       <c r="P132" s="13">
-        <v>7269.3249999999998</v>
+        <v>7286.1549999999997</v>
       </c>
       <c r="Q132" s="13"/>
     </row>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -1085,7 +1085,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:27 PM</t>
+    <t>Tuesday, 26 August, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -1085,7 +1085,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:31 PM</t>
+    <t>Tuesday, 26 August, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BIOWORLD TAB</t>
   </si>
   <si>
@@ -782,6 +791,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 20MG 20 ENTERIC COATED TABS.</t>
   </si>
   <si>
@@ -800,6 +818,15 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
   </si>
   <si>
@@ -839,6 +866,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>SELECTIVAL 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -959,12 +995,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -1085,7 +1115,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:32 PM</t>
+    <t>Tuesday, 26 August, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2188,13 +2218,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2221,13 +2251,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2238,7 +2268,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2254,7 +2284,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2271,7 +2301,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2287,7 +2317,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2353,7 +2383,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2370,7 +2400,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2419,13 +2449,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2452,24 +2482,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2535,7 +2565,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2551,7 +2581,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2584,7 +2614,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2650,7 +2680,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2683,7 +2713,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2693,11 +2723,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2709,14 +2739,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2726,11 +2756,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2792,14 +2822,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2815,7 +2845,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2848,7 +2878,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2865,7 +2895,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2881,7 +2911,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2924,14 +2954,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2980,7 +3010,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2997,7 +3027,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3013,7 +3043,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3023,11 +3053,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3056,14 +3086,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3079,7 +3109,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3096,7 +3126,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3112,21 +3142,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3138,31 +3168,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3188,14 +3218,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3228,7 +3258,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3244,7 +3274,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3261,7 +3291,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3277,7 +3307,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3287,14 +3317,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3320,11 +3350,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3336,14 +3366,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3357,7 +3387,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3369,7 +3399,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3386,14 +3416,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3409,7 +3439,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3442,7 +3472,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3452,11 +3482,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3485,14 +3515,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3508,7 +3538,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3541,7 +3571,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3574,7 +3604,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3584,14 +3614,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3673,21 +3703,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3699,7 +3729,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3716,11 +3746,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3739,24 +3769,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3772,24 +3802,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3805,17 +3835,17 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3838,7 +3868,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3848,14 +3878,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3871,7 +3901,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3904,7 +3934,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3944,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3937,7 +3967,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3970,7 +4000,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4003,7 +4033,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4013,14 +4043,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4029,14 +4059,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4046,14 +4076,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4069,7 +4099,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4086,7 +4116,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4102,7 +4132,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4119,7 +4149,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4135,7 +4165,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4152,7 +4182,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4168,7 +4198,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4185,7 +4215,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4201,13 +4231,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4218,7 +4248,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4234,13 +4264,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4267,7 +4297,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,11 +4307,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4293,14 +4323,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4310,11 +4340,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4326,14 +4356,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4343,11 +4373,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4359,14 +4389,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4376,14 +4406,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4392,14 +4422,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4409,14 +4439,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4432,7 +4462,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4498,7 +4528,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4531,7 +4561,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,11 +4571,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4557,14 +4587,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4574,14 +4604,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4590,14 +4620,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4607,11 +4637,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4623,14 +4653,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4640,14 +4670,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4656,14 +4686,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,11 +4703,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4689,14 +4719,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4706,14 +4736,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4722,14 +4752,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,14 +4769,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4755,14 +4785,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4772,14 +4802,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4788,14 +4818,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4805,14 +4835,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4821,14 +4851,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4838,14 +4868,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4854,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4878,7 +4908,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4894,7 +4924,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4934,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,14 +4950,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4937,11 +4967,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4953,14 +4983,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4977,7 +5007,7 @@
         <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>306</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4986,14 +5016,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5026,7 +5056,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5036,14 +5066,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5069,11 +5099,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>314</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5085,14 +5115,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5109,7 +5139,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5118,28 +5148,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5151,28 +5181,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5184,7 +5214,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5197,15 +5227,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5217,28 +5247,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5250,14 +5280,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,11 +5297,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5283,14 +5313,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,14 +5330,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>328</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5316,7 +5346,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5333,14 +5363,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5349,14 +5379,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,14 +5396,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5382,14 +5412,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5399,11 +5429,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5415,14 +5445,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,14 +5462,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>133</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5455,7 +5485,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,14 +5495,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5488,7 +5518,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,14 +5528,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,14 +5544,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5531,11 +5561,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5547,14 +5577,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5564,14 +5594,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>345</v>
+        <v>164</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5580,14 +5610,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5597,11 +5627,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5613,14 +5643,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,11 +5660,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5646,14 +5676,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>167</v>
+        <v>353</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,11 +5693,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5679,14 +5709,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,11 +5726,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5712,14 +5742,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,11 +5759,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5745,14 +5775,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,11 +5792,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5778,14 +5808,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5795,11 +5825,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5811,14 +5841,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5828,49 +5858,181 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7286.1549999999997</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>358</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>359</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>360</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>361</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>331</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>43</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>362</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>364</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>77</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>43</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>226</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>365</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>105</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>43</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>137</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>366</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>367</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>43</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>233</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7791.1549999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>368</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>369</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>370</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6504,10 +6666,30 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -473,6 +473,15 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -635,10 +644,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>36.0000</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
@@ -671,9 +680,6 @@
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -896,15 +902,21 @@
     <t>167.5800</t>
   </si>
   <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -1022,10 +1034,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>51:0</t>
+    <t>52:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1115,7 +1124,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:35 PM</t>
+    <t>Tuesday, 26 August, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3175,21 +3184,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3201,31 +3210,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3291,7 +3300,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3307,7 +3316,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3324,7 +3333,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3340,7 +3349,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3420,7 +3429,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3432,7 +3441,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3472,7 +3481,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3505,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3515,11 +3524,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3571,7 +3580,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3604,7 +3613,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3637,7 +3646,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3736,21 +3745,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3762,7 +3771,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3802,24 +3811,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3835,24 +3844,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3868,17 +3877,17 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3901,7 +3910,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3934,7 +3943,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3967,7 +3976,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3981,10 +3990,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4010,11 +4019,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4043,11 +4052,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4257,31 +4266,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4290,28 +4299,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4340,7 +4349,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4363,7 +4372,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4396,7 +4405,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4406,11 +4415,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4462,7 +4471,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4476,10 +4485,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4488,7 +4497,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4505,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,11 +4547,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4571,11 +4580,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4587,7 +4596,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4604,11 +4613,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4637,11 +4646,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4670,7 +4679,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4693,7 +4702,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4769,11 +4778,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,11 +4844,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4957,7 +4966,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4971,7 +4980,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5016,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5033,11 +5042,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5066,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5099,11 +5108,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5132,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>318</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5264,11 +5273,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5280,28 +5289,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5313,28 +5322,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5353,7 +5362,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5363,11 +5372,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5396,11 +5405,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5429,11 +5438,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5462,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>338</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5485,7 +5494,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5495,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5528,14 +5537,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>77</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5544,14 +5553,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5561,14 +5570,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>346</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5577,14 +5586,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5594,14 +5603,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>164</v>
+        <v>346</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5610,14 +5619,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5627,11 +5636,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5643,14 +5652,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5660,14 +5669,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5683,7 +5692,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5693,11 +5702,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5716,7 +5725,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5726,11 +5735,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5742,14 +5751,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5759,11 +5768,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5775,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5792,11 +5801,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5808,14 +5817,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5825,11 +5834,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5841,7 +5850,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5858,11 +5867,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5874,14 +5883,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5891,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>362</v>
+        <v>228</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>363</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5907,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5924,11 +5933,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
@@ -5940,14 +5949,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>105</v>
+        <v>335</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5957,11 +5966,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5973,14 +5982,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5990,49 +5999,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7791.1549999999997</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>368</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>105</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>43</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>137</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>369</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
         <v>370</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>43</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>235</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8075.1549999999997</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>371</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>372</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>373</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6686,10 +6761,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COBALAMOUN 1000MCG30 TAB</t>
   </si>
   <si>
@@ -287,9 +296,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -428,6 +434,15 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
@@ -662,10 +677,7 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>LIPONA 20MG 10 F.C.TAB.</t>
@@ -809,9 +821,6 @@
     <t>PANTOPI 20MG 20 ENTERIC COATED TABS.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>63.0000</t>
   </si>
   <si>
@@ -1088,9 +1097,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -1124,7 +1130,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:37 PM</t>
+    <t>Tuesday, 26 August, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,13 +2497,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2508,7 +2514,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2524,24 +2530,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2600,14 +2606,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2633,11 +2639,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2699,11 +2705,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2732,11 +2738,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2798,11 +2804,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2831,14 +2837,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3019,7 +3025,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3062,11 +3068,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3161,11 +3167,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3210,24 +3216,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3250,7 +3256,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3260,14 +3266,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3283,24 +3289,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3359,14 +3365,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3392,11 +3398,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3474,14 +3480,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3498,7 +3504,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3514,7 +3520,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3528,10 +3534,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3712,7 +3718,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3745,7 +3751,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3771,28 +3777,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3804,28 +3810,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3837,31 +3843,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>212</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3936,31 +3942,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4002,7 +4008,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4068,7 +4074,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4141,7 +4147,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4174,7 +4180,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4299,31 +4305,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4365,28 +4371,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>117</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4438,7 +4444,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4464,14 +4470,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4514,11 +4520,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4596,7 +4602,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4613,11 +4619,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4629,14 +4635,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4679,11 +4685,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4712,11 +4718,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,14 +4850,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4992,14 +4998,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,11 +5048,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,14 +5081,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5108,11 +5114,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5174,11 +5180,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>322</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,11 +5246,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>325</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5306,11 +5312,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5339,11 +5345,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5362,21 +5368,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>333</v>
+        <v>132</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5395,21 +5401,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5421,14 +5427,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,11 +5444,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5461,7 +5467,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,11 +5477,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5494,7 +5500,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5527,7 +5533,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5537,14 +5543,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>146</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>341</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5560,7 +5566,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5570,14 +5576,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5586,14 +5592,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5603,14 +5609,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>77</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5619,14 +5625,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5636,14 +5642,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5652,14 +5658,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5669,14 +5675,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>167</v>
+        <v>349</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5685,14 +5691,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5702,11 +5708,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5718,14 +5724,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5735,14 +5741,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5758,7 +5764,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5768,11 +5774,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>229</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5791,7 +5797,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5801,11 +5807,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5817,14 +5823,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5834,11 +5840,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5850,14 +5856,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5867,11 +5873,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5890,7 +5896,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5900,11 +5906,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5933,11 +5939,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
@@ -5956,7 +5962,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>335</v>
+        <v>178</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5966,11 +5972,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5982,14 +5988,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5999,11 +6005,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
@@ -6015,14 +6021,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6032,11 +6038,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>137</v>
+        <v>367</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>20</v>
@@ -6055,7 +6061,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6065,49 +6071,115 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>8075.1549999999997</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>370</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>107</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>43</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>139</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>356</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>371</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
         <v>372</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>43</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>239</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>8121.7849999999999</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
         <v>373</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>374</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>375</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6771,10 +6843,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -1130,7 +1130,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:38 PM</t>
+    <t>Tuesday, 26 August, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -1130,7 +1130,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:40 PM</t>
+    <t>Tuesday, 26 August, 2025 10:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -824,6 +824,12 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>PENDULINE كرلي كريم</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -1089,6 +1095,9 @@
   </si>
   <si>
     <t>27:0</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
     <t>قطن 50جم</t>
@@ -4642,21 +4651,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4685,11 +4694,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4701,7 +4710,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4718,11 +4727,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4784,7 +4793,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4807,7 +4816,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4949,11 +4958,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5015,14 +5024,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5071,7 +5080,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5085,10 +5094,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5104,7 +5113,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5118,10 +5127,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5147,11 +5156,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5180,11 +5189,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5279,14 +5288,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>323</v>
+        <v>150</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>324</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>325</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5312,14 +5321,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5361,7 +5370,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5378,7 +5387,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5401,7 +5410,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5411,11 +5420,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5427,28 +5436,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5467,7 +5476,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>338</v>
+        <v>178</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5477,11 +5486,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5500,7 +5509,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5510,11 +5519,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5526,14 +5535,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5543,11 +5552,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5566,7 +5575,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5576,11 +5585,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5609,14 +5618,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>344</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5642,14 +5651,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>178</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5665,7 +5674,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5675,14 +5684,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>77</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5691,14 +5700,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5708,14 +5717,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5724,14 +5733,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5741,14 +5750,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5764,7 +5773,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5774,14 +5783,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5797,7 +5806,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>338</v>
+        <v>178</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5807,11 +5816,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5823,14 +5832,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5863,7 +5872,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5873,11 +5882,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>361</v>
+        <v>232</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5896,7 +5905,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5906,11 +5915,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5929,7 +5938,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5939,11 +5948,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
@@ -5955,14 +5964,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5972,11 +5981,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5988,7 +5997,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6005,11 +6014,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
@@ -6021,14 +6030,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>338</v>
+        <v>178</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6038,11 +6047,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>367</v>
+        <v>232</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>20</v>
@@ -6054,14 +6063,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6071,11 +6080,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>20</v>
@@ -6087,14 +6096,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6104,11 +6113,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>139</v>
+        <v>370</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>20</v>
@@ -6120,14 +6129,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6137,49 +6146,115 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>373</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>107</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>43</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>139</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>374</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>375</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>43</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>239</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>240</v>
       </c>
-      <c t="s" r="Q139" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>8121.7849999999999</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>373</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>374</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>375</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c t="s" r="Q141" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>8281.7849999999999</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>376</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>377</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>378</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6853,10 +6928,20 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -254,6 +263,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
   </si>
   <si>
@@ -377,9 +398,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -749,7 +767,16 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
   </si>
   <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
@@ -809,6 +836,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -992,9 +1028,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>WE.GEL GEL 75 GM</t>
   </si>
   <si>
@@ -1004,6 +1037,9 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
     <t>ZITHRODOSE 500MG 5 CAPSULES</t>
   </si>
   <si>
@@ -1016,9 +1052,6 @@
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -1049,7 +1082,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>52:0</t>
+    <t>53:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1139,7 +1172,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:47 PM</t>
+    <t>Tuesday, 26 August, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2153,14 +2186,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2169,7 +2202,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2186,7 +2219,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -2209,7 +2242,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2219,14 +2252,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2259,7 +2292,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2275,13 +2308,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2308,13 +2341,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2325,7 +2358,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2341,7 +2374,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2358,7 +2391,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2374,7 +2407,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2384,14 +2417,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2400,14 +2433,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2417,14 +2450,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2440,7 +2473,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2457,7 +2490,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2473,7 +2506,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2483,14 +2516,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2516,14 +2549,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2532,28 +2565,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2582,11 +2615,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2598,20 +2631,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2622,7 +2655,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2638,7 +2671,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2648,14 +2681,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2671,7 +2704,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2681,14 +2714,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2721,7 +2754,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2737,7 +2770,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2754,7 +2787,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2770,7 +2803,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2780,11 +2813,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2836,7 +2869,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2846,11 +2879,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2912,14 +2945,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2928,14 +2961,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2952,7 +2985,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2968,7 +3001,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2978,14 +3011,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3001,7 +3034,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3011,14 +3044,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3044,14 +3077,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3060,14 +3093,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3077,14 +3110,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3110,11 +3143,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -3126,7 +3159,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3143,7 +3176,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3166,7 +3199,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3176,14 +3209,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3209,14 +3242,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3225,14 +3258,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3242,11 +3275,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3265,7 +3298,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3282,7 +3315,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3298,21 +3331,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3341,14 +3374,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3357,31 +3390,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3390,14 +3423,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3423,14 +3456,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3447,7 +3480,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3463,7 +3496,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3473,11 +3506,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3506,14 +3539,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3539,11 +3572,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3562,7 +3595,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3605,14 +3638,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3628,7 +3661,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3638,11 +3671,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3727,7 +3760,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3760,7 +3793,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3786,14 +3819,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3803,11 +3836,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3819,14 +3852,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3836,14 +3869,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3859,21 +3892,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3885,28 +3918,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3918,31 +3951,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3958,7 +3991,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3975,7 +4008,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3991,7 +4024,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4001,14 +4034,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4017,31 +4050,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4083,7 +4116,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4100,11 +4133,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4133,14 +4166,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4189,7 +4222,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4199,14 +4232,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4232,11 +4265,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4248,14 +4281,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4265,11 +4298,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4288,7 +4321,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4321,7 +4354,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4338,7 +4371,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4354,7 +4387,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4368,10 +4401,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4380,20 +4413,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4404,7 +4437,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4437,7 +4470,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4453,7 +4486,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4463,14 +4496,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4479,28 +4512,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4512,14 +4545,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4529,11 +4562,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4545,14 +4578,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4562,14 +4595,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4578,14 +4611,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4595,11 +4628,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4611,14 +4644,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4628,11 +4661,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4644,31 +4677,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4677,14 +4710,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4694,14 +4727,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4710,7 +4743,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4727,11 +4760,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4743,7 +4776,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4760,11 +4793,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4776,24 +4809,24 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4816,7 +4849,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4826,11 +4859,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4842,14 +4875,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4859,14 +4892,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4875,7 +4908,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4892,11 +4925,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4908,14 +4941,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4925,11 +4958,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4941,14 +4974,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4958,14 +4991,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4974,14 +5007,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4991,11 +5024,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -5007,14 +5040,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5024,14 +5057,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5040,7 +5073,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5057,11 +5090,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5073,14 +5106,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5090,14 +5123,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5106,14 +5139,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5123,14 +5156,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5139,14 +5172,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5156,14 +5189,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5172,14 +5205,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5189,11 +5222,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5205,14 +5238,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5222,11 +5255,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5245,7 +5278,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5255,14 +5288,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5271,14 +5304,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5288,11 +5321,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>150</v>
+        <v>322</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5304,14 +5337,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5328,7 +5361,7 @@
         <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>327</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5337,14 +5370,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5377,7 +5410,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5387,14 +5420,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>333</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5420,11 +5453,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>335</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5436,14 +5469,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5453,14 +5486,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5469,28 +5502,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5502,28 +5535,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5535,7 +5568,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5548,15 +5581,15 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5568,28 +5601,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5601,28 +5634,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5634,14 +5667,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5651,14 +5684,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>346</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5667,14 +5700,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5684,14 +5717,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5700,14 +5733,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5717,14 +5750,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5733,14 +5766,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5750,7 +5783,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>95</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5773,7 +5806,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5783,14 +5816,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5799,14 +5832,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5816,14 +5849,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>358</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5832,14 +5865,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5849,14 +5882,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5882,14 +5915,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5898,14 +5931,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5915,11 +5948,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>95</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5931,14 +5964,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5948,14 +5981,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5964,14 +5997,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5981,11 +6014,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>364</v>
+        <v>145</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5997,14 +6030,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6014,11 +6047,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
@@ -6030,14 +6063,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6047,11 +6080,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>20</v>
@@ -6063,14 +6096,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6080,11 +6113,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>20</v>
@@ -6096,14 +6129,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6113,11 +6146,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>20</v>
@@ -6129,14 +6162,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6146,11 +6179,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>20</v>
@@ -6162,14 +6195,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6179,11 +6212,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>20</v>
@@ -6195,14 +6228,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>375</v>
+        <v>184</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6212,49 +6245,214 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>8281.7849999999999</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>376</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>377</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>378</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>379</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>12</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>43</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>175</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>380</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>351</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>43</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>381</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>382</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>383</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>80</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>43</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>238</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>384</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>114</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>43</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>145</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>385</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>386</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>43</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>245</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>8489.6550000000007</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
+        <v>387</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>388</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>389</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6938,10 +7136,35 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-26_00-00.xlsx
+++ b/DaySale_2025-08-26_00-00.xlsx
@@ -599,6 +599,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>GALVUS MET 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>315.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -1172,7 +1181,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 26 August, 2025 10:49 PM</t>
+    <t>Tuesday, 26 August, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3694,7 +3703,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3711,7 +3720,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3727,7 +3736,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3793,7 +3802,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3826,7 +3835,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3859,7 +3868,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3958,21 +3967,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3984,7 +3993,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -4024,24 +4033,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>223</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4057,24 +4066,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>226</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4090,24 +4099,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4156,7 +4165,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4170,10 +4179,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4222,7 +4231,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4255,7 +4264,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4288,7 +4297,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4354,7 +4363,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4371,7 +4380,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4387,7 +4396,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4401,10 +4410,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4434,10 +4443,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4446,14 +4455,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4470,7 +4479,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4486,7 +4495,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4503,7 +4512,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4519,13 +4528,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4536,7 +4545,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4552,13 +4561,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4585,7 +4594,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4595,11 +4604,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4628,11 +4637,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4750,7 +4759,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4767,7 +4776,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4793,11 +4802,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4809,7 +4818,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4822,15 +4831,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4842,24 +4851,24 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4882,7 +4891,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4948,7 +4957,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4981,7 +4990,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4991,11 +5000,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -5007,14 +5016,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5024,14 +5033,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5047,7 +5056,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5073,7 +5082,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5090,7 +5099,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5113,7 +5122,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5123,14 +5132,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5146,7 +5155,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5156,11 +5165,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5172,14 +5181,14 @@
      